--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Gp9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/F2-Gp9.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H2">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I2">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J2">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.195136</v>
+        <v>0.20571</v>
       </c>
       <c r="N2">
-        <v>3.585408</v>
+        <v>0.61713</v>
       </c>
       <c r="O2">
-        <v>0.3633572088099384</v>
+        <v>0.1114078352132379</v>
       </c>
       <c r="P2">
-        <v>0.3633572088099384</v>
+        <v>0.1114078352132379</v>
       </c>
       <c r="Q2">
-        <v>0.5766164691626667</v>
+        <v>0.07910502623</v>
       </c>
       <c r="R2">
-        <v>5.189548222464</v>
+        <v>0.71194523607</v>
       </c>
       <c r="S2">
-        <v>0.0762998114272804</v>
+        <v>0.02211278640209623</v>
       </c>
       <c r="T2">
-        <v>0.07629981142728039</v>
+        <v>0.02211278640209622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H3">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I3">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J3">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>4.709803</v>
       </c>
       <c r="O3">
-        <v>0.4773071494582135</v>
+        <v>0.8502405595430678</v>
       </c>
       <c r="P3">
-        <v>0.4773071494582135</v>
+        <v>0.8502405595430678</v>
       </c>
       <c r="Q3">
-        <v>0.7574451711804445</v>
+        <v>0.6037124914574445</v>
       </c>
       <c r="R3">
-        <v>6.817006540624</v>
+        <v>5.433412423117001</v>
       </c>
       <c r="S3">
-        <v>0.1002276674675907</v>
+        <v>0.1687600144782332</v>
       </c>
       <c r="T3">
-        <v>0.1002276674675907</v>
+        <v>0.1687600144782331</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.4824693333333334</v>
+        <v>0.3845463333333334</v>
       </c>
       <c r="H4">
-        <v>1.447408</v>
+        <v>1.153639</v>
       </c>
       <c r="I4">
-        <v>0.2099856823459656</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="J4">
-        <v>0.2099856823459655</v>
+        <v>0.1984850200147207</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.5240786666666667</v>
+        <v>0.07081466666666668</v>
       </c>
       <c r="N4">
-        <v>1.572236</v>
+        <v>0.212444</v>
       </c>
       <c r="O4">
-        <v>0.1593356417318482</v>
+        <v>0.03835160524369437</v>
       </c>
       <c r="P4">
-        <v>0.1593356417318482</v>
+        <v>0.03835160524369437</v>
       </c>
       <c r="Q4">
-        <v>0.2528518849208889</v>
+        <v>0.0272315204128889</v>
       </c>
       <c r="R4">
-        <v>2.275666964288</v>
+        <v>0.245083683716</v>
       </c>
       <c r="S4">
-        <v>0.03345820345109445</v>
+        <v>0.007612219134391347</v>
       </c>
       <c r="T4">
-        <v>0.03345820345109444</v>
+        <v>0.007612219134391345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.332484</v>
       </c>
       <c r="I5">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J5">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.195136</v>
+        <v>0.20571</v>
       </c>
       <c r="N5">
-        <v>3.585408</v>
+        <v>0.61713</v>
       </c>
       <c r="O5">
-        <v>0.3633572088099384</v>
+        <v>0.1114078352132379</v>
       </c>
       <c r="P5">
-        <v>0.3633572088099384</v>
+        <v>0.1114078352132379</v>
       </c>
       <c r="Q5">
-        <v>1.327590532608</v>
+        <v>0.2285084278799999</v>
       </c>
       <c r="R5">
-        <v>11.948314793472</v>
+        <v>2.05657585092</v>
       </c>
       <c r="S5">
-        <v>0.1756712003695082</v>
+        <v>0.063876573937257</v>
       </c>
       <c r="T5">
-        <v>0.1756712003695081</v>
+        <v>0.06387657393725701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.332484</v>
       </c>
       <c r="I6">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J6">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>4.709803</v>
       </c>
       <c r="O6">
-        <v>0.4773071494582135</v>
+        <v>0.8502405595430678</v>
       </c>
       <c r="P6">
-        <v>0.4773071494582135</v>
+        <v>0.8502405595430678</v>
       </c>
       <c r="Q6">
         <v>1.743927015628</v>
@@ -818,10 +818,10 @@
         <v>15.695343140652</v>
       </c>
       <c r="S6">
-        <v>0.2307622302716764</v>
+        <v>0.4874922294482765</v>
       </c>
       <c r="T6">
-        <v>0.2307622302716764</v>
+        <v>0.4874922294482765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.332484</v>
       </c>
       <c r="I7">
-        <v>0.4834669468781523</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="J7">
-        <v>0.4834669468781522</v>
+        <v>0.5733580031870772</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.5240786666666667</v>
+        <v>0.07081466666666668</v>
       </c>
       <c r="N7">
-        <v>1.572236</v>
+        <v>0.212444</v>
       </c>
       <c r="O7">
-        <v>0.1593356417318482</v>
+        <v>0.03835160524369437</v>
       </c>
       <c r="P7">
-        <v>0.1593356417318482</v>
+        <v>0.03835160524369437</v>
       </c>
       <c r="Q7">
-        <v>0.582161257136</v>
+        <v>0.07866291454400001</v>
       </c>
       <c r="R7">
-        <v>5.239451314224</v>
+        <v>0.7079662308960001</v>
       </c>
       <c r="S7">
-        <v>0.07703351623696776</v>
+        <v>0.02198919980154364</v>
       </c>
       <c r="T7">
-        <v>0.07703351623696775</v>
+        <v>0.02198919980154364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H8">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J8">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.195136</v>
+        <v>0.20571</v>
       </c>
       <c r="N8">
-        <v>3.585408</v>
+        <v>0.61713</v>
       </c>
       <c r="O8">
-        <v>0.3633572088099384</v>
+        <v>0.1114078352132379</v>
       </c>
       <c r="P8">
-        <v>0.3633572088099384</v>
+        <v>0.1114078352132379</v>
       </c>
       <c r="Q8">
-        <v>0.8417729275306667</v>
+        <v>0.09093060842999998</v>
       </c>
       <c r="R8">
-        <v>7.575956347776001</v>
+        <v>0.8183754758699999</v>
       </c>
       <c r="S8">
-        <v>0.1113861970131498</v>
+        <v>0.02541847487388463</v>
       </c>
       <c r="T8">
-        <v>0.1113861970131498</v>
+        <v>0.02541847487388463</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H9">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J9">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>4.709803</v>
       </c>
       <c r="O9">
-        <v>0.4773071494582135</v>
+        <v>0.8502405595430678</v>
       </c>
       <c r="P9">
-        <v>0.4773071494582135</v>
+        <v>0.8502405595430678</v>
       </c>
       <c r="Q9">
-        <v>1.105755512176778</v>
+        <v>0.6939627831663333</v>
       </c>
       <c r="R9">
-        <v>9.951799609590999</v>
+        <v>6.245665048497</v>
       </c>
       <c r="S9">
-        <v>0.1463172517189464</v>
+        <v>0.1939883156165581</v>
       </c>
       <c r="T9">
-        <v>0.1463172517189464</v>
+        <v>0.1939883156165581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7043323333333333</v>
+        <v>0.442033</v>
       </c>
       <c r="H10">
-        <v>2.112997</v>
+        <v>1.326099</v>
       </c>
       <c r="I10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="J10">
-        <v>0.3065473707758822</v>
+        <v>0.2281569767982021</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.5240786666666667</v>
+        <v>0.07081466666666668</v>
       </c>
       <c r="N10">
-        <v>1.572236</v>
+        <v>0.212444</v>
       </c>
       <c r="O10">
-        <v>0.1593356417318482</v>
+        <v>0.03835160524369437</v>
       </c>
       <c r="P10">
-        <v>0.1593356417318482</v>
+        <v>0.03835160524369437</v>
       </c>
       <c r="Q10">
-        <v>0.3691255501435556</v>
+        <v>0.03130241955066667</v>
       </c>
       <c r="R10">
-        <v>3.322129951292001</v>
+        <v>0.281721775956</v>
       </c>
       <c r="S10">
-        <v>0.048843922043786</v>
+        <v>0.008750186307759384</v>
       </c>
       <c r="T10">
-        <v>0.048843922043786</v>
+        <v>0.008750186307759384</v>
       </c>
     </row>
   </sheetData>
